--- a/Рефераты/Темы рефератов.xlsx
+++ b/Рефераты/Темы рефератов.xlsx
@@ -503,15 +503,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="87.21875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="2" max="2" width="79.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
